--- a/handing/number.xlsx
+++ b/handing/number.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,7 +33,7 @@
     <t xml:space="preserve">032923109</t>
   </si>
   <si>
-    <t xml:space="preserve">-001456562</t>
+    <t xml:space="preserve">001456562</t>
   </si>
 </sst>
 </file>
@@ -154,13 +154,12 @@
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1914893617021"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.45957446808511"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5446808510638"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
